--- a/Admin/Timesheets/Week 11-9/Christopher-Kardaras-11-9.xlsx
+++ b/Admin/Timesheets/Week 11-9/Christopher-Kardaras-11-9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckard\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC202B6-F327-450D-8379-DDC64CC96E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6921135F-8CF9-41D1-839C-F984B9CBF379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Jacob Hans</t>
   </si>
   <si>
     <t>Project Team</t>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>AMQP Research</t>
+  </si>
+  <si>
+    <t>Christopher Kardaras</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="27"/>
@@ -510,10 +510,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="27"/>
@@ -537,7 +537,7 @@
     <row r="4" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -549,7 +549,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>44144</v>
@@ -573,13 +573,13 @@
         <v>44150</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8">
         <v>1.5</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="8">
@@ -617,7 +617,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="14">
@@ -636,7 +636,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -655,7 +655,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="9">
         <v>6</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="11">
         <f t="shared" ref="B11:H11" si="1">SUM(B8:B10)</f>
